--- a/testdata/test_data.xlsx
+++ b/testdata/test_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks and Shares ISA" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
   <si>
     <t>URL</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t>ISADOB</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Execute</t>
   </si>
 </sst>
 </file>
@@ -592,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -754,10 +763,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="15"/>
@@ -768,7 +777,7 @@
     <col min="4" max="16384" width="21.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,8 +790,11 @@
       <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -794,14 +806,53 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>111198</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>111198</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
